--- a/bio_diversity/static/data_templates/coldbrook-adult_collection.xlsx
+++ b/bio_diversity/static/data_templates/coldbrook-adult_collection.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyelq\Desktop\Work\dm_apps\dm_apps\bio_diversity\static\data_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAAA8D4-19B8-4968-A5B3-6B79CADD73F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="22980" windowHeight="9525"/>
+    <workbookView xWindow="3780" yWindow="1260" windowWidth="23535" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="3" r:id="rId1"/>
@@ -18,266 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-    <author>Stoyel, Quentin</author>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>eg. 1999</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>eg. Jan</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>eg. 1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Must match a site name in the database</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>True/False value.  Eg. 1/0, y/n</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Fill only if fish has no pit tag. Value can be arbritrary (eg. 1, 2, 3), but must be unique per fish.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Was a new pit tag used? (Y/N)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>eg. Bonell</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>eg. 2021 FP</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Used to indicate if fish were brought back to the facility or returned to the river.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color theme="1"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional, units can be (g) or (kg)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional, units can be (cm) or (mm)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional, M/F/IT/I</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional, True/False value, eg. 1/0, Y/N</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Y/N value</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. AB, CD</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Site</t>
   </si>
@@ -337,13 +80,70 @@
   </si>
   <si>
     <t>Sample #</t>
+  </si>
+  <si>
+    <t>eg. 1999</t>
+  </si>
+  <si>
+    <t>eg, Apr, Sep</t>
+  </si>
+  <si>
+    <t>eg. 1</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Must match site name in database</t>
+  </si>
+  <si>
+    <t>Eg. Bonell. OptionalOptional Y/N value</t>
+  </si>
+  <si>
+    <t>Fill only if fish has no pit tag. Value can be arbritrary (eg. 1, 2, 3), but must be unique per fish.</t>
+  </si>
+  <si>
+    <t>Pit tag number of fist.</t>
+  </si>
+  <si>
+    <t>Optional. Was a new pit tag used? Y/N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional. Must match animal subjective detail in database. Eg. Bonell. </t>
+  </si>
+  <si>
+    <t>Eg. FP 2021</t>
+  </si>
+  <si>
+    <t>Optional. Used to indicate if fish were brought back to the facility or returned to the river.</t>
+  </si>
+  <si>
+    <t>eg. M/F/I</t>
+  </si>
+  <si>
+    <t>Optional. Units can be set in header to (g) or (kg).</t>
+  </si>
+  <si>
+    <t>Optional. Units can be set in header to (cm) or (mm).</t>
+  </si>
+  <si>
+    <t>Vial Number, optional</t>
+  </si>
+  <si>
+    <t>Optional. Y/N</t>
+  </si>
+  <si>
+    <t>Optional. Y/N.</t>
+  </si>
+  <si>
+    <t>Initials of team at site. Eg. AB, CD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,14 +280,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -679,7 +473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -803,6 +597,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -848,11 +670,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -988,6 +819,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1023,6 +871,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1198,94 +1063,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A1:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
     <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" customWidth="1"/>
     <col min="18" max="18" width="20.42578125" customWidth="1"/>
     <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="5" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>